--- a/spec/models/DE/Air/EGRVlv/EGRVlv_DD/interfaceEGRVlv_DD.xlsx
+++ b/spec/models/DE/Air/EGRVlv/EGRVlv_DD/interfaceEGRVlv_DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01_FIS\03_SVNwc\trunk\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_DD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\models\DE\Air\EGRVlv\EGRVlv_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C55A72-BE53-42F1-AEF8-FC5243C618E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D471D-65E3-4FB0-ABD3-4DD00FBA4270}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1557,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1684,28 +1684,6 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,7 +1696,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2057,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2614,7 +2592,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
